--- a/Source Data/Notes/NPO End of Project Evaluation - 2015_annotated.xlsx
+++ b/Source Data/Notes/NPO End of Project Evaluation - 2015_annotated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7891" uniqueCount="2113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7892" uniqueCount="2114">
   <si>
     <t>RespondentID</t>
   </si>
@@ -6359,6 +6359,9 @@
   </si>
   <si>
     <t>Quiz Header Row 2</t>
+  </si>
+  <si>
+    <t>Project ID</t>
   </si>
 </sst>
 </file>
@@ -7177,12 +7180,13 @@
   <dimension ref="A1:DP214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5703125" customWidth="1"/>
     <col min="10" max="10" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34005,8 +34009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34159,6 +34163,9 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
+      <c r="D12" t="s">
+        <v>2113</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
